--- a/ML/media/upldfile/Ошибочные_заявки.xlsx
+++ b/ML/media/upldfile/Ошибочные_заявки.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,100 +436,95 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Клиент</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Клиент</t>
+          <t>Материал</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Материал</t>
+          <t>Краткий текст материала</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Краткий текст материала</t>
+          <t>ЕИ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ЕИ</t>
+          <t>Общее количество</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Общее количество</t>
+          <t>Месяц поставки</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Месяц поставки</t>
+          <t>Год поставки</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Год поставки</t>
+          <t>Полугодие</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Полугодие</t>
+          <t>Срок поставки</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Срок поставки</t>
+          <t>Грузополучатель</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Грузополучатель</t>
+          <t>Цена</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Цена</t>
+          <t>Способ закупки</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Способ закупки</t>
+          <t>№ заказа</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>№ заказа</t>
+          <t>№ позиции</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>№ позиции</t>
+          <t>Дата заказа</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Дата заказа</t>
+          <t>Код класса МТР</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Код класса МТР</t>
+          <t>Доставка: да/нет</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Доставка: да/нет</t>
+          <t>Ошибка</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Ошибка</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Описание ошибки</t>
         </is>
@@ -540,73 +535,70 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>3795</v>
+        <v>78154</v>
       </c>
       <c r="C2" t="n">
-        <v>78154</v>
-      </c>
-      <c r="D2" t="n">
         <v>770000859245</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Наконечник ТМЛ 10-6-5</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Наконечник ТМЛ 10-6-5</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>ШТ</t>
         </is>
+      </c>
+      <c r="F2" t="n">
+        <v>10</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2020</v>
       </c>
       <c r="I2" t="n">
-        <v>2020</v>
-      </c>
-      <c r="J2" t="n">
         <v>2</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>2020-10-31</t>
         </is>
       </c>
+      <c r="K2" t="n">
+        <v>20001793</v>
+      </c>
       <c r="L2" t="n">
-        <v>20001793</v>
-      </c>
-      <c r="M2" t="n">
         <v>1.2</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>10999741</v>
+      </c>
       <c r="O2" t="n">
-        <v>10999741</v>
-      </c>
-      <c r="P2" t="n">
         <v>60</v>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2020-07-25</t>
+          <t>G210402</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>G210402</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
           <t>Нет</t>
         </is>
       </c>
-      <c r="T2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>Нормативный срок поставки превышает требуемый</t>
         </is>
@@ -617,73 +609,70 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>9208</v>
+        <v>78154</v>
       </c>
       <c r="C3" t="n">
-        <v>78154</v>
-      </c>
-      <c r="D3" t="n">
         <v>770000915094</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Кабель ЭА-НР-1М.С/7</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Кабель ЭА-НР-1М.С/7</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>М</t>
         </is>
       </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>2021</v>
       </c>
       <c r="I3" t="n">
-        <v>2021</v>
-      </c>
-      <c r="J3" t="n">
         <v>2</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>2021-07-31</t>
         </is>
       </c>
+      <c r="K3" t="n">
+        <v>20001079</v>
+      </c>
       <c r="L3" t="n">
-        <v>20001079</v>
-      </c>
-      <c r="M3" t="n">
         <v>1.2</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>11086246</v>
+      </c>
       <c r="O3" t="n">
-        <v>11086246</v>
-      </c>
-      <c r="P3" t="n">
         <v>390</v>
       </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2021-04-08</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2021-04-08</t>
+          <t>G2110</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>G2110</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
           <t>Нет</t>
         </is>
       </c>
-      <c r="T3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" t="inlineStr">
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>Нормативный срок поставки превышает требуемый</t>
         </is>
@@ -694,73 +683,70 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>37805</v>
+        <v>64025</v>
       </c>
       <c r="C4" t="n">
-        <v>64025</v>
-      </c>
-      <c r="D4" t="n">
         <v>770000708417</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Муфта 1ПКВТпбН-5х(70-120)</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Муфта 1ПКВТпбН-5х(70-120)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>КТ</t>
         </is>
       </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2024</v>
       </c>
       <c r="I4" t="n">
-        <v>2024</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>2024-03-24</t>
         </is>
       </c>
+      <c r="K4" t="n">
+        <v>20002373</v>
+      </c>
       <c r="L4" t="n">
-        <v>20002373</v>
-      </c>
-      <c r="M4" t="n">
         <v>1782.46</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>11580402</v>
+      </c>
       <c r="O4" t="n">
-        <v>11580402</v>
-      </c>
-      <c r="P4" t="n">
         <v>360</v>
       </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2024-01-16</t>
+        </is>
+      </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>G21040101</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>G21040101</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
           <t>Нет</t>
         </is>
       </c>
-      <c r="T4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" t="inlineStr">
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t>Нормативный срок поставки превышает требуемый</t>
         </is>
@@ -771,73 +757,70 @@
         <v>41</v>
       </c>
       <c r="B5" t="n">
-        <v>39054</v>
+        <v>39232</v>
       </c>
       <c r="C5" t="n">
-        <v>39232</v>
-      </c>
-      <c r="D5" t="n">
         <v>770000894427</v>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Наконечник кабельный ТМЛ 10-6-5</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Наконечник кабельный ТМЛ 10-6-5</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>ШТ</t>
         </is>
       </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>2024</v>
       </c>
       <c r="I5" t="n">
-        <v>2024</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>2024-06-01</t>
         </is>
       </c>
+      <c r="K5" t="n">
+        <v>20002959</v>
+      </c>
       <c r="L5" t="n">
-        <v>20002959</v>
-      </c>
-      <c r="M5" t="n">
         <v>30</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>11609114</v>
+      </c>
       <c r="O5" t="n">
-        <v>11609114</v>
-      </c>
-      <c r="P5" t="n">
         <v>310</v>
       </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>G210402</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>G210402</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
           <t>Нет</t>
         </is>
       </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" t="inlineStr">
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="inlineStr">
         <is>
           <t>Нормативный срок поставки превышает требуемый</t>
         </is>
@@ -848,73 +831,70 @@
         <v>47</v>
       </c>
       <c r="B6" t="n">
-        <v>39483</v>
+        <v>66923</v>
       </c>
       <c r="C6" t="n">
-        <v>66923</v>
-      </c>
-      <c r="D6" t="n">
         <v>770001338164</v>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Провод ПуГВнг(А)-LS 1х120</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Провод ПуГВнг(А)-LS 1х120</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>КМ</t>
         </is>
       </c>
+      <c r="F6" t="n">
+        <v>0.2</v>
+      </c>
       <c r="G6" t="n">
-        <v>0.2</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>2024</v>
       </c>
       <c r="I6" t="n">
-        <v>2024</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>2024-06-30</t>
         </is>
       </c>
+      <c r="K6" t="n">
+        <v>20000973</v>
+      </c>
       <c r="L6" t="n">
-        <v>20000973</v>
-      </c>
-      <c r="M6" t="n">
         <v>1.2</v>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>11622971</v>
+      </c>
       <c r="O6" t="n">
-        <v>11622971</v>
-      </c>
-      <c r="P6" t="n">
         <v>310</v>
       </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
+          <t>G210511</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>G210511</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
           <t>Нет</t>
         </is>
       </c>
-      <c r="T6" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" t="inlineStr">
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t>Нормативный срок поставки превышает требуемый</t>
         </is>
@@ -925,73 +905,70 @@
         <v>48</v>
       </c>
       <c r="B7" t="n">
-        <v>27991</v>
+        <v>26250</v>
       </c>
       <c r="C7" t="n">
-        <v>26250</v>
-      </c>
-      <c r="D7" t="n">
         <v>770000555497</v>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Муфта 5ПСТ(б)нг-LS-1-16/25(Б)</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Муфта 5ПСТ(б)нг-LS-1-16/25(Б)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>КТ</t>
         </is>
       </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2023</v>
       </c>
       <c r="I7" t="n">
-        <v>2023</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>2023-04-30</t>
         </is>
       </c>
+      <c r="K7" t="n">
+        <v>20002276</v>
+      </c>
       <c r="L7" t="n">
-        <v>20002276</v>
-      </c>
-      <c r="M7" t="n">
         <v>1.2</v>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>11431327</v>
+      </c>
       <c r="O7" t="n">
-        <v>11431327</v>
-      </c>
-      <c r="P7" t="n">
         <v>6670</v>
       </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>G21040101</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>G21040101</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
           <t>Нет</t>
         </is>
       </c>
-      <c r="T7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" t="inlineStr">
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="inlineStr">
         <is>
           <t>Нормативный срок поставки превышает требуемый</t>
         </is>
@@ -1002,73 +979,70 @@
         <v>60</v>
       </c>
       <c r="B8" t="n">
-        <v>36590</v>
+        <v>19589</v>
       </c>
       <c r="C8" t="n">
-        <v>19589</v>
-      </c>
-      <c r="D8" t="n">
         <v>770001288122</v>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Кабель КВВГнг(А)-LS 14х1</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Кабель КВВГнг(А)-LS 14х1</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>КМ</t>
         </is>
       </c>
+      <c r="F8" t="n">
+        <v>377</v>
+      </c>
       <c r="G8" t="n">
-        <v>377</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2024</v>
       </c>
       <c r="I8" t="n">
-        <v>2024</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>2024-01-31</t>
         </is>
       </c>
+      <c r="K8" t="n">
+        <v>20000272</v>
+      </c>
       <c r="L8" t="n">
-        <v>20000272</v>
-      </c>
-      <c r="M8" t="n">
         <v>211.22</v>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>11553661</v>
+      </c>
       <c r="O8" t="n">
-        <v>11553661</v>
-      </c>
-      <c r="P8" t="n">
         <v>450</v>
       </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2023-11-17</t>
+          <t>G210502</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>G210502</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
           <t>Нет</t>
         </is>
       </c>
-      <c r="T8" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" t="inlineStr">
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="inlineStr">
         <is>
           <t>Нормативный срок поставки превышает требуемый</t>
         </is>
@@ -1079,77 +1053,74 @@
         <v>77</v>
       </c>
       <c r="B9" t="n">
-        <v>35807</v>
+        <v>40194</v>
       </c>
       <c r="C9" t="n">
-        <v>40194</v>
-      </c>
-      <c r="D9" t="n">
         <v>770000121603</v>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Кабель ВБШвнг(А)-ХЛ 3х2,5 ок(N,PE)-0,66</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Кабель ВБШвнг(А)-ХЛ 3х2,5 ок(N,PE)-0,66</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>КМ</t>
         </is>
       </c>
+      <c r="F9" t="n">
+        <v>0.7</v>
+      </c>
       <c r="G9" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>2024</v>
       </c>
       <c r="I9" t="n">
-        <v>2024</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>2024-02-16</t>
         </is>
       </c>
+      <c r="K9" t="n">
+        <v>20000147</v>
+      </c>
       <c r="L9" t="n">
-        <v>20000147</v>
-      </c>
-      <c r="M9" t="n">
         <v>195037.2</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>Прочие закупки</t>
         </is>
       </c>
+      <c r="N9" t="n">
+        <v>11542103</v>
+      </c>
       <c r="O9" t="n">
-        <v>11542103</v>
-      </c>
-      <c r="P9" t="n">
         <v>20</v>
       </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2023-10-25</t>
+        </is>
+      </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>G21050102</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>G21050102</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
           <t>Нет</t>
         </is>
       </c>
-      <c r="T9" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" t="inlineStr">
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>Нормативный срок поставки превышает требуемый</t>
         </is>
@@ -1160,69 +1131,66 @@
         <v>98</v>
       </c>
       <c r="B10" t="n">
-        <v>21531</v>
+        <v>78154</v>
       </c>
       <c r="C10" t="n">
-        <v>78154</v>
-      </c>
-      <c r="D10" t="n">
         <v>770000902469</v>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Гильза Roxtec/ASF1000310015</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Гильза Roxtec/ASF1000310015</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>ШТ</t>
         </is>
       </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
       <c r="G10" t="n">
+        <v>12</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I10" t="n">
         <v>2</v>
       </c>
-      <c r="H10" t="n">
-        <v>12</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2022</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2022-12-18</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>20001079</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5115.34</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>11292599</v>
+      </c>
+      <c r="O10" t="n">
+        <v>990</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2022-05-27</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>G2104</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
         <v>2</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2022-12-18</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>20001079</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5115.34</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
-        <v>11292599</v>
-      </c>
-      <c r="P10" t="n">
-        <v>990</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>2022-05-27</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>G2104</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="n">
-        <v>2</v>
-      </c>
-      <c r="U10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>Необходимо указать подкласс товара</t>
         </is>
